--- a/redemption/reducefat _hcy.xlsx
+++ b/redemption/reducefat _hcy.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17766"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="图示" sheetId="3" r:id="rId1"/>
@@ -1053,6 +1053,24 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="83"/>
+                <c:pt idx="0">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>80</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1385,6 +1403,24 @@
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
                       <c:ptCount val="83"/>
+                      <c:pt idx="0">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>1</c:v>
+                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:val>
@@ -1910,6 +1946,21 @@
                 <c:pt idx="0">
                   <c:v>58.1</c:v>
                 </c:pt>
+                <c:pt idx="1">
+                  <c:v>58.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>58.1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>58.1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>58.1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>58</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2228,7 +2279,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="84"/>
                 <c:pt idx="0">
-                  <c:v>74</c:v>
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>70</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2306,7 +2372,7 @@
         <c:axId val="597272424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:min val="57.5"/>
+          <c:min val="45"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -3562,10 +3628,10 @@
       <xdr:rowOff>161924</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>666750</xdr:colOff>
-      <xdr:row>64</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3858,8 +3924,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="Y18" sqref="Y18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="X19" sqref="X19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3874,8 +3940,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:E84"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3904,8 +3970,12 @@
       <c r="C2" s="1">
         <v>81</v>
       </c>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
+      <c r="D2" s="1">
+        <v>81</v>
+      </c>
+      <c r="E2" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="3" spans="2:5" ht="18" x14ac:dyDescent="0.2">
       <c r="B3" s="2">
@@ -3914,8 +3984,12 @@
       <c r="C3" s="1">
         <v>80</v>
       </c>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
+      <c r="D3" s="1">
+        <v>81</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="4" spans="2:5" ht="18" x14ac:dyDescent="0.2">
       <c r="B4" s="2">
@@ -3924,8 +3998,12 @@
       <c r="C4" s="1">
         <v>79</v>
       </c>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
+      <c r="D4" s="1">
+        <v>81</v>
+      </c>
+      <c r="E4" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="5" spans="2:5" ht="18" x14ac:dyDescent="0.2">
       <c r="B5" s="2">
@@ -3934,8 +4012,12 @@
       <c r="C5" s="1">
         <v>78</v>
       </c>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
+      <c r="D5" s="1">
+        <v>81</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="6" spans="2:5" ht="18" x14ac:dyDescent="0.2">
       <c r="B6" s="2">
@@ -3944,8 +4026,12 @@
       <c r="C6" s="1">
         <v>77</v>
       </c>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
+      <c r="D6" s="1">
+        <v>81</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="7" spans="2:5" ht="18" x14ac:dyDescent="0.2">
       <c r="B7" s="2">
@@ -3954,8 +4040,12 @@
       <c r="C7" s="1">
         <v>76</v>
       </c>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
+      <c r="D7" s="1">
+        <v>80</v>
+      </c>
+      <c r="E7" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="8" spans="2:5" ht="18" x14ac:dyDescent="0.2">
       <c r="B8" s="2">
@@ -4737,7 +4827,7 @@
   <dimension ref="B1:D85"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4764,43 +4854,63 @@
         <v>58.1</v>
       </c>
       <c r="D2" s="1">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="3" spans="2:4" ht="18" x14ac:dyDescent="0.2">
       <c r="B3" s="2">
         <v>42804</v>
       </c>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
+      <c r="C3" s="1">
+        <v>58.1</v>
+      </c>
+      <c r="D3" s="1">
+        <v>70</v>
+      </c>
     </row>
     <row r="4" spans="2:4" ht="18" x14ac:dyDescent="0.2">
       <c r="B4" s="2">
         <v>42805</v>
       </c>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
+      <c r="C4" s="1">
+        <v>58.1</v>
+      </c>
+      <c r="D4" s="1">
+        <v>70</v>
+      </c>
     </row>
     <row r="5" spans="2:4" ht="18" x14ac:dyDescent="0.2">
       <c r="B5" s="2">
         <v>42806</v>
       </c>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
+      <c r="C5" s="1">
+        <v>58.1</v>
+      </c>
+      <c r="D5" s="1">
+        <v>70</v>
+      </c>
     </row>
     <row r="6" spans="2:4" ht="18" x14ac:dyDescent="0.2">
       <c r="B6" s="2">
         <v>42807</v>
       </c>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
+      <c r="C6" s="1">
+        <v>58.1</v>
+      </c>
+      <c r="D6" s="1">
+        <v>70</v>
+      </c>
     </row>
     <row r="7" spans="2:4" ht="18" x14ac:dyDescent="0.2">
       <c r="B7" s="2">
         <v>42808</v>
       </c>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
+      <c r="C7" s="1">
+        <v>58</v>
+      </c>
+      <c r="D7" s="1">
+        <v>70</v>
+      </c>
     </row>
     <row r="8" spans="2:4" ht="18" x14ac:dyDescent="0.2">
       <c r="B8" s="2">

--- a/redemption/reducefat _hcy.xlsx
+++ b/redemption/reducefat _hcy.xlsx
@@ -4,14 +4,14 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17766"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="图示" sheetId="3" r:id="rId1"/>
     <sheet name="进度统计" sheetId="1" r:id="rId2"/>
     <sheet name="记录" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1071,6 +1071,33 @@
                 <c:pt idx="5">
                   <c:v>80</c:v>
                 </c:pt>
+                <c:pt idx="6">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>77</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1420,6 +1447,33 @@
                       </c:pt>
                       <c:pt idx="5">
                         <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>7</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>2</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>-3</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -1961,6 +2015,33 @@
                 <c:pt idx="5">
                   <c:v>58</c:v>
                 </c:pt>
+                <c:pt idx="6">
+                  <c:v>57.3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>57.3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>57.3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>57.3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>57.3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>57.5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>57.4</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>57.4</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>57.7</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2294,6 +2375,33 @@
                   <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>70</c:v>
                 </c:pt>
               </c:numCache>
@@ -3924,7 +4032,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="X19" sqref="X19"/>
     </sheetView>
   </sheetViews>
@@ -3940,8 +4048,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:E84"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4054,8 +4162,12 @@
       <c r="C8" s="1">
         <v>75</v>
       </c>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
+      <c r="D8" s="1">
+        <v>73</v>
+      </c>
+      <c r="E8" s="1">
+        <v>7</v>
+      </c>
     </row>
     <row r="9" spans="2:5" ht="18" x14ac:dyDescent="0.2">
       <c r="B9" s="2">
@@ -4064,8 +4176,12 @@
       <c r="C9" s="1">
         <v>74</v>
       </c>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
+      <c r="D9" s="1">
+        <v>73</v>
+      </c>
+      <c r="E9" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="10" spans="2:5" ht="18" x14ac:dyDescent="0.2">
       <c r="B10" s="2">
@@ -4074,8 +4190,12 @@
       <c r="C10" s="1">
         <v>73</v>
       </c>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
+      <c r="D10" s="1">
+        <v>73</v>
+      </c>
+      <c r="E10" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="11" spans="2:5" ht="18" x14ac:dyDescent="0.2">
       <c r="B11" s="2">
@@ -4084,8 +4204,12 @@
       <c r="C11" s="1">
         <v>72</v>
       </c>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
+      <c r="D11" s="1">
+        <v>73</v>
+      </c>
+      <c r="E11" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="12" spans="2:5" ht="18" x14ac:dyDescent="0.2">
       <c r="B12" s="2">
@@ -4094,8 +4218,12 @@
       <c r="C12" s="1">
         <v>71</v>
       </c>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
+      <c r="D12" s="1">
+        <v>73</v>
+      </c>
+      <c r="E12" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="13" spans="2:5" ht="18" x14ac:dyDescent="0.2">
       <c r="B13" s="2">
@@ -4104,8 +4232,12 @@
       <c r="C13" s="1">
         <v>70</v>
       </c>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
+      <c r="D13" s="1">
+        <v>75</v>
+      </c>
+      <c r="E13" s="1">
+        <v>2</v>
+      </c>
     </row>
     <row r="14" spans="2:5" ht="18" x14ac:dyDescent="0.2">
       <c r="B14" s="2">
@@ -4114,8 +4246,12 @@
       <c r="C14" s="1">
         <v>69</v>
       </c>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
+      <c r="D14" s="1">
+        <v>74</v>
+      </c>
+      <c r="E14" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="15" spans="2:5" ht="18" x14ac:dyDescent="0.2">
       <c r="B15" s="2">
@@ -4124,8 +4260,12 @@
       <c r="C15" s="1">
         <v>68</v>
       </c>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
+      <c r="D15" s="1">
+        <v>74</v>
+      </c>
+      <c r="E15" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="16" spans="2:5" ht="18" x14ac:dyDescent="0.2">
       <c r="B16" s="2">
@@ -4134,8 +4274,12 @@
       <c r="C16" s="1">
         <v>67</v>
       </c>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
+      <c r="D16" s="1">
+        <v>77</v>
+      </c>
+      <c r="E16" s="1">
+        <v>-3</v>
+      </c>
     </row>
     <row r="17" spans="2:5" ht="18" x14ac:dyDescent="0.2">
       <c r="B17" s="2">
@@ -4827,7 +4971,7 @@
   <dimension ref="B1:D85"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4916,64 +5060,100 @@
       <c r="B8" s="2">
         <v>42809</v>
       </c>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
+      <c r="C8" s="1">
+        <v>57.3</v>
+      </c>
+      <c r="D8" s="1">
+        <v>70</v>
+      </c>
     </row>
     <row r="9" spans="2:4" ht="18" x14ac:dyDescent="0.2">
       <c r="B9" s="2">
         <v>42810</v>
       </c>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
+      <c r="C9" s="1">
+        <v>57.3</v>
+      </c>
+      <c r="D9" s="1">
+        <v>70</v>
+      </c>
     </row>
     <row r="10" spans="2:4" ht="18" x14ac:dyDescent="0.2">
       <c r="B10" s="2">
         <v>42811</v>
       </c>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
+      <c r="C10" s="1">
+        <v>57.3</v>
+      </c>
+      <c r="D10" s="1">
+        <v>70</v>
+      </c>
     </row>
     <row r="11" spans="2:4" ht="18" x14ac:dyDescent="0.2">
       <c r="B11" s="2">
         <v>42812</v>
       </c>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
+      <c r="C11" s="1">
+        <v>57.3</v>
+      </c>
+      <c r="D11" s="1">
+        <v>70</v>
+      </c>
     </row>
     <row r="12" spans="2:4" ht="18" x14ac:dyDescent="0.2">
       <c r="B12" s="2">
         <v>42813</v>
       </c>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
+      <c r="C12" s="1">
+        <v>57.3</v>
+      </c>
+      <c r="D12" s="1">
+        <v>70</v>
+      </c>
     </row>
     <row r="13" spans="2:4" ht="18" x14ac:dyDescent="0.2">
       <c r="B13" s="2">
         <v>42814</v>
       </c>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
+      <c r="C13" s="1">
+        <v>57.5</v>
+      </c>
+      <c r="D13" s="1">
+        <v>70</v>
+      </c>
     </row>
     <row r="14" spans="2:4" ht="18" x14ac:dyDescent="0.2">
       <c r="B14" s="2">
         <v>42815</v>
       </c>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
+      <c r="C14" s="1">
+        <v>57.4</v>
+      </c>
+      <c r="D14" s="1">
+        <v>70</v>
+      </c>
     </row>
     <row r="15" spans="2:4" ht="18" x14ac:dyDescent="0.2">
       <c r="B15" s="2">
         <v>42816</v>
       </c>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
+      <c r="C15" s="1">
+        <v>57.4</v>
+      </c>
+      <c r="D15" s="1">
+        <v>70</v>
+      </c>
     </row>
     <row r="16" spans="2:4" ht="18" x14ac:dyDescent="0.2">
       <c r="B16" s="2">
         <v>42817</v>
       </c>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
+      <c r="C16" s="1">
+        <v>57.7</v>
+      </c>
+      <c r="D16" s="1">
+        <v>70</v>
+      </c>
     </row>
     <row r="17" spans="2:4" ht="18" x14ac:dyDescent="0.2">
       <c r="B17" s="2">

--- a/redemption/reducefat _hcy.xlsx
+++ b/redemption/reducefat _hcy.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17766"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17830"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="图示" sheetId="3" r:id="rId1"/>
@@ -1097,6 +1097,9 @@
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>68</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2041,6 +2044,9 @@
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>57.7</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>56.8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4032,7 +4038,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="X19" sqref="X19"/>
     </sheetView>
   </sheetViews>
@@ -4048,8 +4054,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:E84"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4398,7 +4404,9 @@
       <c r="C28" s="1">
         <v>55</v>
       </c>
-      <c r="D28" s="1"/>
+      <c r="D28" s="1">
+        <v>68</v>
+      </c>
       <c r="E28" s="1"/>
     </row>
     <row r="29" spans="2:5" ht="18" x14ac:dyDescent="0.2">
@@ -4971,7 +4979,7 @@
   <dimension ref="B1:D85"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5243,7 +5251,9 @@
       <c r="B29" s="2">
         <v>42830</v>
       </c>
-      <c r="C29" s="1"/>
+      <c r="C29" s="1">
+        <v>56.8</v>
+      </c>
       <c r="D29" s="1"/>
     </row>
     <row r="30" spans="2:4" ht="18" x14ac:dyDescent="0.2">
